--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA2928-6AF6-4F2B-99BE-9BC06BA15FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5CEC30-C442-48E5-9C58-0D2EBC6F3324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="825" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="26535" windowHeight="15345" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,31 @@
   </si>
   <si>
     <t>공지사항상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용코드 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingItemCodeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자등록 (이름조회)</t>
+  </si>
+  <si>
+    <t>uspGetStandingAdminPublisherSearch</t>
+  </si>
+  <si>
+    <t>사용자등록 (관리자선택)</t>
+  </si>
+  <si>
+    <t>uspGetStandingAdminPublisherSelect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,18 +761,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,14 +800,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,946 +1120,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>8</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="3" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="3" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="3" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B20" s="9">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="3" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B24" s="9">
         <v>6</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="3" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="3" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="3" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B28" s="9">
         <v>7</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="3" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B30" s="9">
         <v>8</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="3" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="3" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B33" s="9">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="3" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="3" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B36" s="9">
         <v>10</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="F36" s="3"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="3" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="3" t="s">
+      <c r="F37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="3" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="3" t="s">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B41" s="9">
         <v>11</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="3" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="3" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="3" t="s">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B45" s="9">
         <v>12</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="3" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="3" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="3" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="3" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="3" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B51" s="9">
         <v>13</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="3" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B53" s="9">
         <v>14</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="3" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="3" t="s">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="3" t="s">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="3" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B58" s="9">
         <v>15</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="3" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="3" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="3" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="3" t="s">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B63" s="9">
         <v>16</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="3" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C33:C35"/>
     <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5CEC30-C442-48E5-9C58-0D2EBC6F3324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4434C-A3BF-4876-A56C-994B97000670}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="26535" windowHeight="15345" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="11595" yWindow="225" windowWidth="17520" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,6 +767,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,18 +797,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,15 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,7 +1124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1164,10 +1164,10 @@
       <c r="C2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F2" s="5"/>
@@ -1176,54 +1176,54 @@
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1235,9 +1235,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1259,9 +1259,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1274,16 +1274,16 @@
       <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="3"/>
@@ -1292,36 +1292,36 @@
       <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="3"/>
@@ -1330,16 +1330,16 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="16">
         <v>4</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="3"/>
@@ -1348,60 +1348,60 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="10" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="3"/>
@@ -1410,10 +1410,10 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1428,8 +1428,8 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1440,8 +1440,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1452,8 +1452,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1466,10 +1466,10 @@
       <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="16">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1484,8 +1484,8 @@
       <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1496,8 +1496,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1508,8 +1508,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1522,10 +1522,10 @@
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="16">
         <v>7</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1538,8 +1538,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1552,10 +1552,10 @@
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="16">
         <v>8</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1570,8 +1570,8 @@
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1584,8 +1584,8 @@
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1598,10 +1598,10 @@
       <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="16">
         <v>9</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1616,8 +1616,8 @@
       <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1630,8 +1630,8 @@
       <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1644,10 +1644,10 @@
       <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="16">
         <v>10</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1663,8 +1663,8 @@
       <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1676,8 +1676,8 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1702,8 +1702,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1716,10 +1716,10 @@
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="16">
         <v>11</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1734,8 +1734,8 @@
       <c r="A42" s="4">
         <v>34</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1746,8 +1746,8 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1758,8 +1758,8 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1772,10 +1772,10 @@
       <c r="A45" s="4">
         <v>37</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="16">
         <v>12</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1790,8 +1790,8 @@
       <c r="A46" s="4">
         <v>38</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1804,8 +1804,8 @@
       <c r="A47" s="4">
         <v>39</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1818,8 +1818,8 @@
       <c r="A48" s="4">
         <v>40</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1832,8 +1832,8 @@
       <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="16">
         <v>13</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -1878,8 +1878,8 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
@@ -1892,10 +1892,10 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="16">
         <v>14</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -1910,8 +1910,8 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="3" t="s">
         <v>138</v>
       </c>
@@ -1922,8 +1922,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1934,8 +1934,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="3" t="s">
         <v>134</v>
       </c>
@@ -1948,8 +1948,8 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="3" t="s">
         <v>135</v>
       </c>
@@ -1962,10 +1962,10 @@
       <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="16">
         <v>15</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -1980,8 +1980,8 @@
       <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="12"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
@@ -1994,8 +1994,8 @@
       <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="12"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
@@ -2008,8 +2008,8 @@
       <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
@@ -2020,8 +2020,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="3" t="s">
         <v>71</v>
       </c>
@@ -2034,10 +2034,10 @@
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="16">
         <v>16</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2052,8 +2052,8 @@
       <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="3" t="s">
         <v>74</v>
       </c>
@@ -2064,14 +2064,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C10:C13"/>
@@ -2088,16 +2090,14 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C41:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4434C-A3BF-4876-A56C-994B97000670}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C04590-057F-4D37-A5B0-365940D05D17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="225" windowWidth="17520" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="5715" yWindow="1800" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,6 +773,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,15 +795,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,8 +1123,8 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1176,10 +1176,10 @@
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1191,11 +1191,11 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1205,9 +1205,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1217,13 +1217,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>8</v>
       </c>
       <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1235,9 +1235,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1247,9 +1247,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1259,9 +1259,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1274,10 +1274,10 @@
       <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1292,8 +1292,8 @@
       <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1304,8 +1304,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1316,8 +1316,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1330,10 +1330,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1348,8 +1348,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="10" t="s">
         <v>142</v>
       </c>
@@ -1360,8 +1360,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="10" t="s">
         <v>144</v>
       </c>
@@ -1372,8 +1372,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1384,8 +1384,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1396,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1410,10 +1410,10 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1428,8 +1428,8 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1440,8 +1440,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1452,8 +1452,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1466,16 +1466,16 @@
       <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="3"/>
@@ -1484,36 +1484,36 @@
       <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F27" s="3"/>
@@ -1522,10 +1522,10 @@
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="11">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1538,8 +1538,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1552,10 +1552,10 @@
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="11">
         <v>8</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1570,8 +1570,8 @@
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1584,8 +1584,8 @@
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1598,10 +1598,10 @@
       <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="11">
         <v>9</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1616,8 +1616,8 @@
       <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1630,8 +1630,8 @@
       <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1644,10 +1644,10 @@
       <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="11">
         <v>10</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1663,8 +1663,8 @@
       <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3" t="s">
         <v>46</v>
       </c>
@@ -1676,8 +1676,8 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1702,8 +1702,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1716,10 +1716,10 @@
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="11">
         <v>11</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1734,8 +1734,8 @@
       <c r="A42" s="4">
         <v>34</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1746,8 +1746,8 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1758,8 +1758,8 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1772,10 +1772,10 @@
       <c r="A45" s="4">
         <v>37</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1790,8 +1790,8 @@
       <c r="A46" s="4">
         <v>38</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1804,8 +1804,8 @@
       <c r="A47" s="4">
         <v>39</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1818,8 +1818,8 @@
       <c r="A48" s="4">
         <v>40</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1832,8 +1832,8 @@
       <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="11">
         <v>13</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -1878,8 +1878,8 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
@@ -1892,10 +1892,10 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="11">
         <v>14</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -1910,8 +1910,8 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
         <v>138</v>
       </c>
@@ -1922,8 +1922,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1934,8 +1934,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="3" t="s">
         <v>134</v>
       </c>
@@ -1948,8 +1948,8 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="3" t="s">
         <v>135</v>
       </c>
@@ -1962,10 +1962,10 @@
       <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="11">
         <v>15</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -1980,8 +1980,8 @@
       <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
@@ -1994,8 +1994,8 @@
       <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
@@ -2008,8 +2008,8 @@
       <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
@@ -2020,8 +2020,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="3" t="s">
         <v>71</v>
       </c>
@@ -2034,10 +2034,10 @@
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="11">
         <v>16</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2052,8 +2052,8 @@
       <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="3" t="s">
         <v>74</v>
       </c>
@@ -2064,16 +2064,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C41:C44"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C10:C13"/>
@@ -2090,14 +2086,18 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C04590-057F-4D37-A5B0-365940D05D17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369E0E2-3B91-4F43-B2DE-3F4C06200647}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1800" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24015" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,14 @@
   </si>
   <si>
     <t>uspGetStandingAdminPublisherSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceExperienceUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceExperienceDelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,6 +677,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +787,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,6 +803,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,8 +1143,8 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1176,10 +1196,10 @@
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1191,11 +1211,11 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1205,9 +1225,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1217,13 +1237,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1235,9 +1255,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1247,9 +1267,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1259,9 +1279,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1274,10 +1294,10 @@
       <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1292,8 +1312,8 @@
       <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1304,8 +1324,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1316,8 +1336,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1330,10 +1350,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1348,8 +1368,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="10" t="s">
         <v>142</v>
       </c>
@@ -1360,8 +1380,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10" t="s">
         <v>144</v>
       </c>
@@ -1372,8 +1392,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1384,8 +1404,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1416,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1410,16 +1430,16 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F20" s="3"/>
@@ -1428,36 +1448,36 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="3"/>
@@ -1466,10 +1486,10 @@
       <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1484,8 +1504,8 @@
       <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1496,8 +1516,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
@@ -1508,8 +1528,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1522,10 +1542,10 @@
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>7</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1538,8 +1558,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1552,10 +1572,10 @@
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>8</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1570,8 +1590,8 @@
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1584,8 +1604,8 @@
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1598,10 +1618,10 @@
       <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>9</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1616,8 +1636,8 @@
       <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1630,8 +1650,8 @@
       <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1644,16 +1664,16 @@
       <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>10</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F36" s="3"/>
@@ -1663,12 +1683,12 @@
       <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="11" t="s">
         <v>125</v>
       </c>
       <c r="F37" s="3"/>
@@ -1676,12 +1696,12 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F38" s="3"/>
@@ -1690,24 +1710,24 @@
       <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="3"/>
@@ -1716,10 +1736,10 @@
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>11</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1734,8 +1754,8 @@
       <c r="A42" s="4">
         <v>34</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1746,25 +1766,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -1772,10 +1792,10 @@
       <c r="A45" s="4">
         <v>37</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="12">
         <v>12</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1790,8 +1810,8 @@
       <c r="A46" s="4">
         <v>38</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1804,8 +1824,8 @@
       <c r="A47" s="4">
         <v>39</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1818,8 +1838,8 @@
       <c r="A48" s="4">
         <v>40</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1832,8 +1852,8 @@
       <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
@@ -1846,8 +1866,8 @@
       <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1860,10 +1880,10 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>13</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -1878,8 +1898,8 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
@@ -1892,10 +1912,10 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="12">
         <v>14</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -1910,8 +1930,8 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="3" t="s">
         <v>138</v>
       </c>
@@ -1922,8 +1942,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1934,8 +1954,8 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="3" t="s">
         <v>134</v>
       </c>
@@ -1948,8 +1968,8 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="3" t="s">
         <v>135</v>
       </c>
@@ -1962,10 +1982,10 @@
       <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>15</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -1980,8 +2000,8 @@
       <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
@@ -1994,8 +2014,8 @@
       <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
@@ -2008,8 +2028,8 @@
       <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
@@ -2020,8 +2040,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="3" t="s">
         <v>71</v>
       </c>
@@ -2034,10 +2054,10 @@
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="12">
         <v>16</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2052,8 +2072,8 @@
       <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="3" t="s">
         <v>74</v>
       </c>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369E0E2-3B91-4F43-B2DE-3F4C06200647}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E2B9DC-0B71-49C1-A018-F3C47109D702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24015" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="2520" yWindow="3075" windowWidth="24015" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,60 @@
   </si>
   <si>
     <t>uspSetStandingServiceExperienceDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingServiceExperienceAdminInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험담등록시상단순감정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험담등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceExperienceInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+experience
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceExperienceBranchConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험담지부승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingProductOrderAdminInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판물주문시제품재고정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판물주문시순감정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingProductOrderStockList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingProductOrderDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판물주문삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,12 +731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,8 +835,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,24 +859,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1197,7 @@
     <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="7" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1196,10 +1241,10 @@
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1211,11 +1256,11 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1225,9 +1270,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1237,13 +1282,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1255,9 +1300,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1267,9 +1312,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1279,9 +1324,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1294,10 +1339,10 @@
       <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1312,8 +1357,8 @@
       <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1324,8 +1369,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1336,8 +1381,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1350,10 +1395,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="16">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1368,8 +1413,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
         <v>142</v>
       </c>
@@ -1380,8 +1425,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="10" t="s">
         <v>144</v>
       </c>
@@ -1392,8 +1437,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1404,8 +1449,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1416,8 +1461,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1430,16 +1475,16 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F20" s="3"/>
@@ -1448,36 +1493,36 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="3"/>
@@ -1486,10 +1531,10 @@
       <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="16">
         <v>6</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1504,8 +1549,8 @@
       <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1516,8 +1561,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
@@ -1528,8 +1573,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1542,10 +1587,10 @@
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="16">
         <v>7</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1558,8 +1603,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1572,10 +1617,10 @@
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="16">
         <v>8</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1590,8 +1635,8 @@
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1604,8 +1649,8 @@
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1618,10 +1663,10 @@
       <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="16">
         <v>9</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1636,8 +1681,8 @@
       <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1650,8 +1695,8 @@
       <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1664,16 +1709,16 @@
       <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="16">
         <v>10</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F36" s="3"/>
@@ -1683,12 +1728,12 @@
       <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="11" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>125</v>
       </c>
       <c r="F37" s="3"/>
@@ -1696,12 +1741,12 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F38" s="3"/>
@@ -1710,24 +1755,24 @@
       <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="11" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="3"/>
@@ -1736,365 +1781,448 @@
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="16">
         <v>11</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>34</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="3" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E47" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>37</v>
-      </c>
-      <c r="B45" s="12">
-        <v>12</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>38</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>39</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
+        <v>37</v>
+      </c>
+      <c r="B48" s="16">
+        <v>12</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>106</v>
+      <c r="D48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>42</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>43</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>108</v>
+      <c r="A50" s="4"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="12">
-        <v>13</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>133</v>
+      <c r="A51" s="4"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="12">
-        <v>14</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>110</v>
+        <v>40</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>111</v>
+      <c r="B55" s="17"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>136</v>
+      <c r="A56" s="4">
+        <v>43</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>53</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="B57" s="16">
+        <v>13</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="D57" s="3" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>55</v>
-      </c>
-      <c r="B58" s="12">
-        <v>15</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>56</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="16">
+        <v>14</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D59" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>57</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="3" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>58</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="3" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>59</v>
-      </c>
-      <c r="B63" s="12">
-        <v>16</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>72</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="3" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
+        <v>55</v>
+      </c>
+      <c r="B64" s="16">
+        <v>15</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>56</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>57</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>58</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>59</v>
+      </c>
+      <c r="B69" s="16">
+        <v>16</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="3" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="C73" s="22" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
@@ -2106,18 +2234,12 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C41:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E2B9DC-0B71-49C1-A018-F3C47109D702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D2251-9210-4EE5-A8A0-718785795EDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3075" windowWidth="24015" windowHeight="15135" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="10680" yWindow="1500" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,6 +835,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,15 +862,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1188,8 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57:E70"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1241,10 +1241,10 @@
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1256,11 +1256,11 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1270,9 +1270,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1282,13 +1282,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1300,9 +1300,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1312,9 +1312,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1324,9 +1324,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1339,10 +1339,10 @@
       <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1357,8 +1357,8 @@
       <c r="A11" s="4">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1369,8 +1369,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1381,8 +1381,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1395,10 +1395,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1413,8 +1413,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="10" t="s">
         <v>142</v>
       </c>
@@ -1425,8 +1425,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10" t="s">
         <v>144</v>
       </c>
@@ -1437,8 +1437,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1449,8 +1449,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1461,8 +1461,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1475,10 +1475,10 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1493,8 +1493,8 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1505,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1517,8 +1517,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1531,10 +1531,10 @@
       <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1549,8 +1549,8 @@
       <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1561,8 +1561,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
@@ -1573,8 +1573,8 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1587,10 +1587,10 @@
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1603,8 +1603,8 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1617,10 +1617,10 @@
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <v>8</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1635,8 +1635,8 @@
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1649,8 +1649,8 @@
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1663,16 +1663,16 @@
       <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>9</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="3"/>
@@ -1681,8 +1681,8 @@
       <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1695,8 +1695,8 @@
       <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1709,10 +1709,10 @@
       <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>10</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -1728,8 +1728,8 @@
       <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="10" t="s">
         <v>46</v>
       </c>
@@ -1741,8 +1741,8 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="10" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="10" t="s">
         <v>49</v>
       </c>
@@ -1767,8 +1767,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="10" t="s">
         <v>50</v>
       </c>
@@ -1781,10 +1781,10 @@
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <v>11</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -1797,8 +1797,8 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="10" t="s">
         <v>149</v>
       </c>
@@ -1811,8 +1811,8 @@
       <c r="A43" s="4">
         <v>34</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="10" t="s">
         <v>52</v>
       </c>
@@ -1823,8 +1823,8 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="10" t="s">
         <v>150</v>
       </c>
@@ -1835,8 +1835,8 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="10" t="s">
         <v>53</v>
       </c>
@@ -1847,8 +1847,8 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="10" t="s">
         <v>154</v>
       </c>
@@ -1859,8 +1859,8 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="10" t="s">
         <v>54</v>
       </c>
@@ -1873,10 +1873,10 @@
       <c r="A48" s="4">
         <v>37</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <v>12</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -1891,8 +1891,8 @@
       <c r="A49" s="4">
         <v>38</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="10" t="s">
         <v>56</v>
       </c>
@@ -1903,8 +1903,8 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="10" t="s">
         <v>157</v>
       </c>
@@ -1915,8 +1915,8 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="10" t="s">
         <v>156</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="A52" s="4">
         <v>39</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="10" t="s">
         <v>57</v>
       </c>
@@ -1943,8 +1943,8 @@
       <c r="A53" s="4">
         <v>40</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="10" t="s">
         <v>58</v>
       </c>
@@ -1957,8 +1957,8 @@
       <c r="A54" s="4">
         <v>42</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="10" t="s">
         <v>59</v>
       </c>
@@ -1969,8 +1969,8 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="10" t="s">
         <v>160</v>
       </c>
@@ -1983,8 +1983,8 @@
       <c r="A56" s="4">
         <v>43</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="10" t="s">
         <v>60</v>
       </c>
@@ -1997,10 +1997,10 @@
       <c r="A57" s="4">
         <v>46</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="12">
         <v>13</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -2015,8 +2015,8 @@
       <c r="A58" s="4">
         <v>47</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="3" t="s">
         <v>63</v>
       </c>
@@ -2029,10 +2029,10 @@
       <c r="A59" s="4">
         <v>51</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="12">
         <v>14</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -2047,8 +2047,8 @@
       <c r="A60" s="4">
         <v>52</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="3" t="s">
         <v>138</v>
       </c>
@@ -2059,8 +2059,8 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="3" t="s">
         <v>65</v>
       </c>
@@ -2071,8 +2071,8 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="3" t="s">
         <v>134</v>
       </c>
@@ -2085,8 +2085,8 @@
       <c r="A63" s="4">
         <v>53</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="3" t="s">
         <v>135</v>
       </c>
@@ -2099,10 +2099,10 @@
       <c r="A64" s="4">
         <v>55</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="12">
         <v>15</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -2117,8 +2117,8 @@
       <c r="A65" s="4">
         <v>56</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="3" t="s">
         <v>70</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="A66" s="4">
         <v>57</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2145,8 +2145,8 @@
       <c r="A67" s="4">
         <v>58</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2157,8 +2157,8 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="3" t="s">
         <v>71</v>
       </c>
@@ -2171,10 +2171,10 @@
       <c r="A69" s="4">
         <v>59</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="12">
         <v>16</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -2189,8 +2189,8 @@
       <c r="A70" s="4">
         <v>60</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="3" t="s">
         <v>74</v>
       </c>
@@ -2200,24 +2200,18 @@
       <c r="F70" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="11" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C41:C47"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C10:C13"/>
@@ -2234,12 +2228,18 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D2251-9210-4EE5-A8A0-718785795EDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DDF8C-1225-4E7E-8614-ECBBB0C24C3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1500" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="12975" yWindow="1410" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,22 @@
   </si>
   <si>
     <t>출판물주문삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingSearchMetroList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingSearchCircuitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingSearchCongregationList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +854,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,21 +881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,6 +889,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1238,1008 +1266,1041 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="9" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="9" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B9" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="3" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="3" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="10" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="10" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="10" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="10" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="4">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12">
-        <v>6</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>19</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="4">
+        <v>18</v>
+      </c>
+      <c r="B27" s="18">
+        <v>6</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12">
-        <v>7</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>100</v>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>23</v>
-      </c>
-      <c r="B30" s="12">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>101</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>24</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="18">
+        <v>7</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>25</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>27</v>
-      </c>
-      <c r="B33" s="12">
-        <v>9</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="B33" s="18">
+        <v>8</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>28</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>29</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>30</v>
-      </c>
-      <c r="B36" s="12">
-        <v>10</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="B36" s="18">
+        <v>9</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>31</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>132</v>
+      <c r="A38" s="4">
+        <v>29</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
+        <v>30</v>
+      </c>
+      <c r="B39" s="18">
+        <v>10</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>31</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="10" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="10" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B44" s="18">
         <v>11</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>34</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="10" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="4">
+        <v>34</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="10" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="10" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>37</v>
-      </c>
-      <c r="B48" s="12">
-        <v>12</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>38</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="10" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="10" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="4">
+        <v>37</v>
+      </c>
+      <c r="B51" s="18">
+        <v>12</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="D51" s="10" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
+        <v>38</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>39</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="10" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>40</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>42</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>46</v>
-      </c>
-      <c r="B57" s="12">
-        <v>13</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>133</v>
+        <v>42</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>47</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>109</v>
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>51</v>
-      </c>
-      <c r="B59" s="12">
-        <v>14</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>52</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="18">
+        <v>13</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D60" s="3" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="4">
+        <v>47</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="4">
+        <v>51</v>
+      </c>
+      <c r="B62" s="18">
+        <v>14</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D62" s="3" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>53</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>55</v>
-      </c>
-      <c r="B64" s="12">
-        <v>15</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>56</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="15"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="3" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>57</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="3" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>58</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="B67" s="18">
+        <v>15</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="4">
+        <v>56</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>59</v>
-      </c>
-      <c r="B69" s="12">
-        <v>16</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
+        <v>58</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>59</v>
+      </c>
+      <c r="B72" s="18">
+        <v>16</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>60</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="3" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="73" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="C73" s="11" t="s">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="C76" s="11" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C28:C29"/>
+  <mergeCells count="35">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="C44:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\StandingService\Stored Procedure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DDF8C-1225-4E7E-8614-ECBBB0C24C3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A9877E-537E-409C-B800-960C5D904DD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="1410" windowWidth="15765" windowHeight="13800" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
+    <workbookView xWindow="675" yWindow="720" windowWidth="24015" windowHeight="14700" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>봉사시간지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사자수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>봉사시간변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사일정관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,22 +292,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메시지함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보낸메시지리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보낸메시지상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받은메시지상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메시지등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uspSetStandingServiceTimeUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uspGetStandingDailyServicePlanCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,18 +464,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uspGetStandingLetterReceiveDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uspGetStandingLetterSendList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uspGetStandingLetterSendDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uspSetStandingLetterInsert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,10 +521,6 @@
   </si>
   <si>
     <t>uspGetStandingStatisticsPublisherCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uspSetStandingServiceTimeInsert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,6 +652,116 @@
   </si>
   <si>
     <t>uspGetStandingSearchCongregationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingDailyServiceReportDetailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별출판물상세(상단정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingServiceTimeList</t>
+  </si>
+  <si>
+    <t>uspGetStandingServiceTimePublisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사타임지정정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceTimePublisherInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingServiceTimePublisherUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사타임지정-봉사자 셋팅정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사자 셋팅정보 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사자 셋팅정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사자 셋팅정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항파일등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항파일삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingNoticeFileDelete</t>
+  </si>
+  <si>
+    <t>uspSetStandingNoticeReadCnt</t>
+  </si>
+  <si>
+    <t>공지사항읽기수업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항파일보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingNoticeFile</t>
+  </si>
+  <si>
+    <t>uspSetStandingNoticeFileInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspGetStandingLetterDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uspSetStandingLetterReadUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메시지 수신여부 업데이트 </t>
+  </si>
+  <si>
+    <t>uspGetStandingLetterFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 파일등록</t>
+  </si>
+  <si>
+    <t>uspSetStandingLetterFileInsert</t>
+  </si>
+  <si>
+    <t>uspSetStandingLetterFileDelete</t>
+  </si>
+  <si>
+    <t>메시지 파일삭제</t>
+  </si>
+  <si>
+    <t>메시지 파일보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편지함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +821,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,65 +919,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,11 +1311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36:E38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1323,7 @@
     <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="7" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1236,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1248,52 +1346,54 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>141</v>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>162</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="9" t="s">
-        <v>163</v>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="9" t="s">
-        <v>164</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1301,97 +1401,97 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>78</v>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>79</v>
+      <c r="E7" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>80</v>
+      <c r="E8" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1399,17 +1499,17 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>84</v>
+      <c r="E13" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1417,37 +1517,37 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>85</v>
+      <c r="E14" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>86</v>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>87</v>
+      <c r="E16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1455,17 +1555,17 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>4</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>88</v>
+      <c r="E17" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1473,61 +1573,61 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>143</v>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>145</v>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>89</v>
+      <c r="E20" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>90</v>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>91</v>
+      <c r="E22" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1535,17 +1635,17 @@
       <c r="A23" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>5</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>92</v>
+      <c r="E23" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1553,37 +1653,37 @@
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>93</v>
+      <c r="E24" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>94</v>
+      <c r="E25" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>95</v>
+      <c r="E26" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1591,17 +1691,17 @@
       <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>6</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>96</v>
+      <c r="E27" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1609,681 +1709,809 @@
       <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>97</v>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>98</v>
+      <c r="A29" s="4">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="10" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>20</v>
-      </c>
-      <c r="B31" s="18">
-        <v>7</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>131</v>
+      <c r="D31" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>100</v>
+      <c r="B32" s="10"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>159</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>23</v>
-      </c>
-      <c r="B33" s="18">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>101</v>
+      <c r="A33" s="4"/>
+      <c r="B33" s="14">
+        <v>7</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>24</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>102</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>25</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>120</v>
+      <c r="A35" s="4"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>27</v>
-      </c>
-      <c r="B36" s="18">
-        <v>9</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="14">
+        <v>8</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>28</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>29</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>30</v>
-      </c>
-      <c r="B39" s="18">
-        <v>10</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>124</v>
+        <v>28</v>
+      </c>
+      <c r="B39" s="14">
+        <v>9</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
+        <v>29</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>30</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>31</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>32</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>127</v>
+      <c r="B43" s="14">
+        <v>10</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="F43" s="3"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>33</v>
-      </c>
-      <c r="B44" s="18">
-        <v>11</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F44" s="3"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>148</v>
+      <c r="B45" s="15"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>34</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>151</v>
+      <c r="B47" s="16"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>146</v>
+      <c r="A48" s="4">
+        <v>34</v>
+      </c>
+      <c r="B48" s="14">
+        <v>11</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>153</v>
+      <c r="B49" s="15"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>147</v>
+      <c r="A50" s="4">
+        <v>35</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>37</v>
-      </c>
-      <c r="B51" s="18">
-        <v>12</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>103</v>
+      <c r="A51" s="4"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>38</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>104</v>
+        <v>36</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>155</v>
+      <c r="B53" s="15"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>158</v>
+      <c r="B54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>39</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>105</v>
+        <v>37</v>
+      </c>
+      <c r="B55" s="14">
+        <v>12</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>40</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>42</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>107</v>
+      <c r="A57" s="4"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>159</v>
+      <c r="B58" s="15"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>108</v>
+        <v>39</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>46</v>
-      </c>
-      <c r="B60" s="18">
-        <v>13</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>47</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>109</v>
+        <v>42</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>51</v>
-      </c>
-      <c r="B62" s="18">
-        <v>14</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>110</v>
+      <c r="A62" s="4"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>52</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>112</v>
+        <v>43</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="13"/>
+      <c r="A64" s="4">
+        <v>46</v>
+      </c>
+      <c r="B64" s="14">
+        <v>13</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D64" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="13"/>
+      <c r="A65" s="4">
+        <v>47</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>53</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>137</v>
+        <v>51</v>
+      </c>
+      <c r="B66" s="14">
+        <v>14</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>55</v>
-      </c>
-      <c r="B67" s="18">
-        <v>15</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>113</v>
+        <v>52</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>56</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>114</v>
+      <c r="A68" s="4"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>57</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>115</v>
+      <c r="A69" s="4"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>58</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>116</v>
+      <c r="A70" s="4"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>117</v>
+      <c r="B71" s="15"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>53</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>55</v>
+      </c>
+      <c r="B75" s="14">
+        <v>15</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>56</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>57</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>58</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>59</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B83" s="14">
         <v>16</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="C83" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
         <v>60</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="76" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="C76" s="11" t="s">
-        <v>152</v>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="C87" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="C72:C73"/>
+  <mergeCells count="38">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
@@ -2292,15 +2520,26 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B54"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
+++ b/Stored Procedure/Stored Procedure Develope List (Admin).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\StandingService\Stored Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A9877E-537E-409C-B800-960C5D904DD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9188B206-46BE-4B7A-80FD-C760FB6AE796}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="720" windowWidth="24015" windowHeight="14700" xr2:uid="{BDDC9E57-5757-4BD3-A090-FD2F602A53FE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,12 +598,6 @@
   </si>
   <si>
     <t>uspSetStandingServiceExperienceInsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-experience
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,12 +919,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,63 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEACEA-A04D-4342-8F20-1301D9B36B6E}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1350,11 +1341,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1366,34 +1357,34 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1401,10 +1392,10 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1416,11 +1407,11 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1430,9 +1421,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1442,13 +1433,13 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1460,9 +1451,9 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1472,9 +1463,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1484,9 +1475,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1499,10 +1490,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1517,8 +1508,8 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1529,8 +1520,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1541,8 +1532,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1555,10 +1546,10 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="17">
         <v>4</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1573,8 +1564,8 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="8" t="s">
         <v>133</v>
       </c>
@@ -1585,8 +1576,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="8" t="s">
         <v>135</v>
       </c>
@@ -1597,8 +1588,8 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1609,8 +1600,8 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1621,8 +1612,8 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1635,10 +1626,10 @@
       <c r="A23" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="17">
         <v>5</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1653,8 +1644,8 @@
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1665,8 +1656,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1668,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1691,10 +1682,10 @@
       <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="17">
         <v>6</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1709,8 +1700,8 @@
       <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1723,8 +1714,8 @@
       <c r="A29" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1735,8 +1726,8 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1749,65 +1740,65 @@
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>158</v>
+      <c r="D31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>159</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="14">
+      <c r="B33" s="17">
         <v>7</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>161</v>
+      <c r="C33" s="15"/>
+      <c r="D33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>162</v>
+      <c r="B34" s="25"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>162</v>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -1815,10 +1806,10 @@
       <c r="A36" s="4">
         <v>23</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="17">
         <v>8</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1833,8 +1824,8 @@
       <c r="A37" s="4">
         <v>24</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1847,8 +1838,8 @@
       <c r="A38" s="4">
         <v>25</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
@@ -1861,16 +1852,16 @@
       <c r="A39" s="4">
         <v>28</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="17">
         <v>9</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F39" s="3"/>
@@ -1879,12 +1870,12 @@
       <c r="A40" s="4">
         <v>29</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F40" s="3"/>
@@ -1893,25 +1884,25 @@
       <c r="A41" s="4">
         <v>30</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>156</v>
+      <c r="E42" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -1919,10 +1910,10 @@
       <c r="A43" s="4">
         <v>31</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="17">
         <v>10</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1938,8 +1929,8 @@
       <c r="A44" s="4">
         <v>32</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="8" t="s">
         <v>44</v>
       </c>
@@ -1951,8 +1942,8 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="8" t="s">
         <v>46</v>
       </c>
@@ -1965,8 +1956,8 @@
       <c r="A46" s="4">
         <v>32</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="8" t="s">
         <v>47</v>
       </c>
@@ -1977,8 +1968,8 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="8" t="s">
         <v>48</v>
       </c>
@@ -1991,10 +1982,10 @@
       <c r="A48" s="4">
         <v>34</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="17">
         <v>11</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -2007,8 +1998,8 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="8" t="s">
         <v>140</v>
       </c>
@@ -2021,8 +2012,8 @@
       <c r="A50" s="4">
         <v>35</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="8" t="s">
         <v>50</v>
       </c>
@@ -2033,8 +2024,8 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="8" t="s">
         <v>141</v>
       </c>
@@ -2047,8 +2038,8 @@
       <c r="A52" s="4">
         <v>36</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="8" t="s">
         <v>51</v>
       </c>
@@ -2059,20 +2050,20 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2085,10 +2076,10 @@
       <c r="A55" s="4">
         <v>37</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="17">
         <v>12</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -2103,8 +2094,8 @@
       <c r="A56" s="4">
         <v>38</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="8" t="s">
         <v>54</v>
       </c>
@@ -2115,25 +2106,25 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -2141,8 +2132,8 @@
       <c r="A59" s="4">
         <v>39</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="8" t="s">
         <v>55</v>
       </c>
@@ -2155,8 +2146,8 @@
       <c r="A60" s="4">
         <v>40</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="8" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2160,8 @@
       <c r="A61" s="4">
         <v>42</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="8" t="s">
         <v>57</v>
       </c>
@@ -2181,13 +2172,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F62" s="3"/>
     </row>
@@ -2195,8 +2186,8 @@
       <c r="A63" s="4">
         <v>43</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="8" t="s">
         <v>58</v>
       </c>
@@ -2209,10 +2200,10 @@
       <c r="A64" s="4">
         <v>46</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="17">
         <v>13</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -2227,8 +2218,8 @@
       <c r="A65" s="4">
         <v>47</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="3" t="s">
         <v>61</v>
       </c>
@@ -2241,16 +2232,16 @@
       <c r="A66" s="4">
         <v>51</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="17">
         <v>14</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F66" s="3"/>
@@ -2259,85 +2250,85 @@
       <c r="A67" s="4">
         <v>52</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29" t="s">
+      <c r="B69" s="25"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="29" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="10" t="s">
         <v>170</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>173</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>174</v>
+      <c r="B73" s="25"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="F73" s="3"/>
     </row>
@@ -2345,13 +2336,13 @@
       <c r="A74" s="4">
         <v>53</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="F74" s="3"/>
     </row>
@@ -2359,16 +2350,16 @@
       <c r="A75" s="4">
         <v>55</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="17">
         <v>15</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="29" t="s">
+      <c r="C75" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="10" t="s">
         <v>107</v>
       </c>
       <c r="F75" s="3"/>
@@ -2377,12 +2368,12 @@
       <c r="A76" s="4">
         <v>56</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F76" s="3"/>
@@ -2391,13 +2382,13 @@
       <c r="A77" s="4">
         <v>57</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="29" t="s">
+      <c r="B77" s="25"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="10" t="s">
         <v>175</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -2405,61 +2396,61 @@
       <c r="A78" s="4">
         <v>58</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="10" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="29" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="10" t="s">
         <v>177</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>179</v>
+      <c r="B80" s="25"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>181</v>
       </c>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E82" s="29" t="s">
+      <c r="B82" s="25"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="10" t="s">
         <v>182</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="F82" s="3"/>
     </row>
@@ -2467,10 +2458,10 @@
       <c r="A83" s="4">
         <v>59</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="17">
         <v>16</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -2485,8 +2476,8 @@
       <c r="A84" s="4">
         <v>60</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
@@ -2495,13 +2486,30 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="C87" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="B83:B84"/>
@@ -2518,28 +2526,6 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C55:C63"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
